--- a/Processed Results/Nexus 5X/Networking/Networking - Processed.xlsx
+++ b/Processed Results/Nexus 5X/Networking/Networking - Processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778AB09-0A83-4D05-8BDA-E06F3D8531DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E21387E-4C6F-4FA8-B196-823484C4B127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="370" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="1520" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -7207,10 +7213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7424,7 +7430,7 @@
         <v>6.3246331652590904</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7432,23 +7438,37 @@
         <v>120.152736</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>119.23084799999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>119.384496</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 114.202998) * 100) - 100</f>
+        <v>8.1427498076713505</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 113.658804) * 100) - 100</f>
+        <v>5.3079812453419777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7476,7 @@
         <v>120.460032</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>119.384496</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7472,7 +7492,7 @@
         <v>119.84544</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7480,7 +7500,7 @@
         <v>119.0772</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7508,7 @@
         <v>107.860895999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7496,7 +7516,7 @@
         <v>119.53814399999899</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7504,7 +7524,7 @@
         <v>134.90294399999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7512,7 +7532,7 @@
         <v>135.67118400000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7540,7 @@
         <v>134.288352</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7528,7 +7548,7 @@
         <v>134.59564800000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7536,7 +7556,7 @@
         <v>118.769904</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7544,7 +7564,7 @@
         <v>119.69179200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7751,7 +7771,7 @@
         <v>6.228898599811985</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7759,23 +7779,37 @@
         <v>135.17686800000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>137.36977199999899</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>136.116683999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 114.202998) * 100) - 100</f>
+        <v>11.484780811095519</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 113.658804) * 100) - 100</f>
+        <v>7.4937230555408547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7783,7 +7817,7 @@
         <v>135.33350399999901</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7791,7 +7825,7 @@
         <v>134.70695999999899</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7799,7 +7833,7 @@
         <v>135.80341200000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7807,7 +7841,7 @@
         <v>135.64677599999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7815,7 +7849,7 @@
         <v>129.06806399999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7823,7 +7857,7 @@
         <v>135.960048</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7831,7 +7865,7 @@
         <v>136.27331999999899</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7839,7 +7873,7 @@
         <v>134.393688</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7847,7 +7881,7 @@
         <v>119.82653999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7855,7 +7889,7 @@
         <v>119.199996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7863,7 +7897,7 @@
         <v>120.296448</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7871,7 +7905,7 @@
         <v>120.453084</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8078,7 +8112,7 @@
         <v>8.0633853379643963</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8086,23 +8120,37 @@
         <v>135.89596800000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>137.579364</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>136.81418399999899</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((E67 / 114.202998) * 100) - 100</f>
+        <v>14.456845344812933</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 113.658804) * 100) - 100</f>
+        <v>19.160905476358863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8110,7 +8158,7 @@
         <v>135.130788</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8118,7 +8166,7 @@
         <v>136.049004</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8126,7 +8174,7 @@
         <v>135.742932</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8134,7 +8182,7 @@
         <v>136.355076</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8142,7 +8190,7 @@
         <v>127.478988</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8150,7 +8198,7 @@
         <v>136.661148</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8206,7 @@
         <v>136.355076</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8166,7 +8214,7 @@
         <v>135.89596800000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8174,7 +8222,7 @@
         <v>135.130788</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8182,7 +8230,7 @@
         <v>136.049004</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8190,7 +8238,7 @@
         <v>135.43686</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8198,7 +8246,7 @@
         <v>135.89596800000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8326,23 +8374,37 @@
         <v>136.74672000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>120.152736</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>119.23084799999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D19 + D51 + D83) / 3</f>
+        <v>11.361458654526601</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>10.654203259080566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8350,7 +8412,7 @@
         <v>119.384496</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8358,7 +8420,7 @@
         <v>120.460032</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8366,7 +8428,7 @@
         <v>119.384496</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8374,7 +8436,7 @@
         <v>119.84544</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8382,7 +8444,7 @@
         <v>119.0772</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8390,7 +8452,7 @@
         <v>107.860895999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8398,7 +8460,7 @@
         <v>119.53814399999899</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8406,7 +8468,7 @@
         <v>134.90294399999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8414,7 +8476,7 @@
         <v>135.67118400000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8422,7 +8484,7 @@
         <v>134.288352</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8430,7 +8492,7 @@
         <v>134.59564800000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8438,7 +8500,7 @@
         <v>118.769904</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8446,7 +8508,7 @@
         <v>119.69179200000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
